--- a/pred_ohlcv/54_21/2020-01-11 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 SOC ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-285654552.2696004</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-285933497.6984004</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-286109612.8095242</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-286244387.5423638</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-286115545.8071242</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-286047939.9573242</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-286130286.1166259</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-285889216.7240849</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-285399526.9816369</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-285340984.0744369</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-285628376.1235468</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-285677300.6608468</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-285792600.6961468</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-285723543.0643642</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-285723543.0643642</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-285735920.1837642</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-285712286.9065642</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-285710486.9065642</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-285756410.1075642</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-285581284.771467</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-285642856.671167</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-285676652.360067</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-285709658.968167</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-285709658.968167</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-285721155.486667</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-285829947.492667</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-285576155.663267</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-285579205.083267</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-285576104.011467</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-285576104.011467</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-285576076.011467</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-285586076.011467</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-285538942.903267</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-285547722.342667</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-285582303.992967</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-286449569.7297705</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-286644671.0875705</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-286701757.538359</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-286598348.9342714</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-286167623.9728714</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-286091902.7842366</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-285824479.6008996</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-285529258.8568715</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-285280788.2742743</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-285314986.3359743</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-285415261.8239743</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-285415261.8239743</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-285623643.4078742</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-285778823.6286742</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-285778765.6286742</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-285778824.6286742</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-286989315.8017954</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-286850576.3662953</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-286844511.8132954</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-277597927.0797684</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-277626609.3364683</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-272964073.4559683</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-315881399.9378844</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-315875115.7346845</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-315980733.8628845</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-316059468.2028844</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-316073843.4885845</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-316060328.7184893</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-316519578.0853762</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-316519478.0853762</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-316535185.0326762</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-316892134.0603762</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-316953144.9466763</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-317065555.6156763</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-316979890.2016475</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-316980892.0206475</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-317000127.9063475</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-317319392.8151475</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-317315195.5740475</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-317364176.1846475</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-317519124.8497475</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-317515771.072769</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-317529852.4787691</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-322862555.7252409</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-322941454.5403785</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-322559786.0152785</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-322700146.8376785</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-322677293.4740785</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-322667290.2486785</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-322678113.2559785</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-322642743.4689715</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-322659258.2003715</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-322619591.2988786</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-322626188.9584786</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-322719967.2994786</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-322545031.7748786</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-322745209.7373787</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-322738839.0837787</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-322732734.7027787</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-322739626.2808787</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-322739333.2015787</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-322720287.5220787</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-322737753.8818787</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-345765255.4870006</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-346640926.4075006</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-346214885.1867006</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-346170250.5692745</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-346170250.5692745</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-346170250.5692745</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-346175892.3800746</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-346175892.3800746</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-346359506.1383746</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-346361149.8058746</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-345763222.0138746</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-345884027.1395746</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-345884027.1395746</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-347336038.5198746</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-347336038.5198746</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-345372838.5198746</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-345032187.1272746</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-344096098.8596746</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-344096098.8596746</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-343624948.3838746</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-342906814.6095746</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-343006814.6095746</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-342978133.7811746</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-342953770.9011746</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-343124023.5181746</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-344137914.0043278</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-344138161.2804278</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-344799685.9801187</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-344551968.1237187</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-345030572.6018186</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-345030412.3573186</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-344927190.9495459</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-344759241.3700458</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-344791178.9823458</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-344791178.9823458</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-344931867.8230458</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-345132971.7245458</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-345251142.2468458</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-345251142.2468458</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-345251142.2468458</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-345251142.2468458</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-345251110.3310459</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-345261209.8297459</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-345261209.8297459</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-345261068.7978459</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-345261068.7978459</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-345383400.1445459</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-345380915.1445459</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-345385566.0616459</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-345295280.420551</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-345281582.420551</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-345933611.286751</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-345975849.566651</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-345418869.996951</v>
       </c>
       <c r="H1000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 SOC ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-285654552.2696004</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-285933497.6984004</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-286109612.8095242</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-286244387.5423638</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-286115545.8071242</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-286047939.9573242</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-286172639.8427242</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-286373308.8163242</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-286378356.5873242</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-286340434.8494242</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-286115015.5637259</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-286130286.1166259</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-285889216.7240849</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-285399526.9816369</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-285340984.0744369</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-285628376.1235468</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-285677300.6608468</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-285792600.6961468</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-285723543.0643642</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-285756410.1075642</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-285581284.771467</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-285642856.671167</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-285676652.360067</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-285709658.968167</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-285709658.968167</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-285721155.486667</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-285829947.492667</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-285576155.663267</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-286449569.7297705</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-286644671.0875705</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-286701757.538359</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-286598348.9342714</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-286167623.9728714</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-286091902.7842366</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-285824479.6008996</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-285271430.1364743</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-285280788.2742743</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-285314986.3359743</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-285415261.8239743</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-285415261.8239743</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-285623643.4078742</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-285778823.6286742</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-285778765.6286742</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-285778824.6286742</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-285778824.6286742</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-286989315.8017954</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-286850576.3662953</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-286844511.8132954</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-277597927.0797684</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-277626609.3364683</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-272964073.4559683</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-315881399.9378844</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-315875115.7346845</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-315980733.8628845</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-316059468.2028844</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-316073843.4885845</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-316060328.7184893</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-316519578.0853762</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-316519478.0853762</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-316535185.0326762</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-316892134.0603762</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-316953144.9466763</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-317065555.6156763</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-316979890.2016475</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-316980892.0206475</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-317000127.9063475</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-317319392.8151475</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-317315195.5740475</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-317364176.1846475</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-317519124.8497475</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-317515771.072769</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-317529852.4787691</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-323030174.8021409</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-323286456.9532409</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-323034602.1502751</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-323078872.4183751</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-322734402.4979396</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-322941454.5403785</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-322559786.0152785</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-322586543.6874785</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-322700146.8376785</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-322677293.4740785</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-322667290.2486785</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-322678113.2559785</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-322642743.4689715</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-322659258.2003715</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-322619591.2988786</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-322626188.9584786</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-322719967.2994786</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-322545031.7748786</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-322547743.2350786</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-322547743.2350786</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-322812985.7409786</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-322754897.9938786</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-322730970.7488786</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-322748320.8851786</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-322745209.7373787</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-322738839.0837787</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-322732734.7027787</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-322726364.0491787</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-322723940.5889787</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-322743572.7357787</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-322739626.2808787</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-322739333.2015787</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-322720287.5220787</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-322737753.8818787</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-322671806.2572787</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-322711124.2806787</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-322556804.9352787</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-322556668.3778787</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-322568036.0830787</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-322745694.2170787</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-322704847.095809</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-322738299.236609</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-322776589.344609</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-322606859.976309</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-322606823.282409</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-322606935.921809</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-322606903.921809</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-322350720.547609</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-322350662.547609</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-322350662.547609</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-322390018.988909</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-322390018.988909</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-322390018.988909</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-322385713.881409</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-322397094.177509</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-322428274.207109</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-322385580.176309</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-322288399.0353091</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-321913835.9397091</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-321913835.9397091</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-321664394.3096091</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-344137914.0043278</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-344138161.2804278</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
